--- a/resolver.xlsx
+++ b/resolver.xlsx
@@ -5,12 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="test1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="test2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="test3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="test4" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="test5" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="test6" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t xml:space="preserve">C:/Users/dpenn/Desktop/Projects/Resolver/QE-index.html</t>
   </si>
@@ -112,6 +116,87 @@
   </si>
   <si>
     <t xml:space="preserve">ul.list-group&gt;li.list-group-item:nth-child(2)&gt;span.badge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Drop Down Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop Down Item Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop Down Button Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop Down Item Select Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test-3-div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#test-3-div&gt;h1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.dropdown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">.dropdown&gt;button.btn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.dropdown-item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button_element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test-4-div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#test-4-div&gt;h1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#test-4-div&gt;.btn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test5 alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test-5-div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#test-5-div&gt;h1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test5-button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.alert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Table Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test-6-div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#test-6-div&gt;h1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventosanzap</t>
   </si>
 </sst>
 </file>
@@ -205,7 +290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,6 +325,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -262,7 +351,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -378,8 +467,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -454,4 +543,264 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.97"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.92"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.92"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.95"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/resolver.xlsx
+++ b/resolver.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -207,11 +207,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -229,23 +230,11 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,44 +279,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -350,17 +335,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -383,69 +368,69 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="19.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -468,69 +453,69 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="44.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="34.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="44.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -553,63 +538,63 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -632,42 +617,42 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -690,49 +675,49 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -754,43 +739,43 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
     </row>

--- a/resolver.xlsx
+++ b/resolver.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,9 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
-  <si>
-    <t xml:space="preserve">C:/Users/dpenn/Desktop/Projects/Resolver/QE-index.html</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+  <si>
+    <t xml:space="preserve">file:///C:/Users/dpenn/Desktop/Projects/Resolver/QE-index.html</t>
   </si>
   <si>
     <t xml:space="preserve">page_load_element</t>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">button element</t>
   </si>
   <si>
+    <t xml:space="preserve">Browser</t>
+  </si>
+  <si>
     <t xml:space="preserve">test-1-div</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t xml:space="preserve">btn</t>
   </si>
   <si>
+    <t xml:space="preserve">Chrome</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expected Heading 2</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t xml:space="preserve">ul.list-group&gt;li.list-group-item:nth-child(2)&gt;span.badge</t>
   </si>
   <si>
+    <t xml:space="preserve">Firefox</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expected Drop Down Item</t>
   </si>
   <si>
@@ -149,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">.dropdown-item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xyz123</t>
   </si>
   <si>
     <t xml:space="preserve">button_element</t>
@@ -279,7 +291,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,6 +305,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,8 +351,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -365,10 +381,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -407,31 +423,37 @@
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -450,10 +472,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -468,55 +490,61 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -535,10 +563,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -553,49 +581,55 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>40</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -614,10 +648,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -629,31 +663,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>45</v>
+      <c r="A2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -672,10 +712,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -688,37 +728,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>51</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -737,10 +783,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,31 +798,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>55</v>
+      <c r="A2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/resolver.xlsx
+++ b/resolver.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t xml:space="preserve">file:///C:/Users/dpenn/Desktop/Projects/Resolver/QE-index.html</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">.dropdown-item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xyz123</t>
   </si>
   <si>
     <t xml:space="preserve">button_element</t>
@@ -351,7 +348,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -565,8 +562,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -629,7 +626,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>9</v>
@@ -681,16 +678,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>32</v>
@@ -738,10 +735,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>9</v>
@@ -749,19 +746,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>18</v>
@@ -808,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>9</v>
@@ -816,16 +813,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>32</v>
